--- a/src/main/webapp/WEB-INF/template/MAU_CAM_KET_DAT_HANG_GACH.xlsx
+++ b/src/main/webapp/WEB-INF/template/MAU_CAM_KET_DAT_HANG_GACH.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\DU_AN\phamarcy\src\main\webapp\WEB-INF\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CAC\cac_web\cac_web_new\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95D084A-A32E-4793-A912-9923197E4E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -110,9 +111,6 @@
   </si>
   <si>
     <t>Ngày               tháng          năm 2021</t>
-  </si>
-  <si>
-    <t>Số điện thoại:</t>
   </si>
   <si>
     <t>Khách hàng:</t>
@@ -127,8 +125,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +173,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -280,9 +299,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,6 +318,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -343,6 +371,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,146 +666,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:I13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.85546875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="27" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="28"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="14" t="s">
+      <c r="B7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -791,154 +832,151 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+    <row r="12" spans="2:13" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:13" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="23"/>
+    </row>
     <row r="15" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="20"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="20" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="15" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="17" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="17" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="17"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="2:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C16:I16"/>
     <mergeCell ref="C17:I17"/>
     <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -959,106 +997,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1089,122 +1127,121 @@
     </row>
     <row r="11" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="17" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="17" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
     <mergeCell ref="A9:H9"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A1:H1"/>
@@ -1224,6 +1261,6 @@
     <mergeCell ref="B19:H19"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/webapp/WEB-INF/template/MAU_CAM_KET_DAT_HANG_GACH.xlsx
+++ b/src/main/webapp/WEB-INF/template/MAU_CAM_KET_DAT_HANG_GACH.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CAC\cac_web\cac_web_new\src\main\webapp\WEB-INF\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\DU_AN\phamarcy\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95D084A-A32E-4793-A912-9923197E4E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -120,12 +119,27 @@
   </si>
   <si>
     <t>MÃ NV:</t>
+  </si>
+  <si>
+    <t>1/ Hàng đã đặt về nếu khách hàng không lấy hàng nữa sẽ mất luôn tiền đã đặt hàng</t>
+  </si>
+  <si>
+    <t>2/ Khi giao hàng xuống sẽ thu dứt điểm số tiền còn lại của lô hàng nếu có phát sinh</t>
+  </si>
+  <si>
+    <t>3/ Về phía bán hàng chúng tôi cam kết bồi thường gấp đôi số tiền đã đặt hàng cho quý khách hàng nếu sau khi đã nhận hàng mà không có hàng như cam kết ( Cam kết này ngoại trừ trường hợp đã quá ngày cam kết đặt giữ hàng mà khách hàng chưa nhận hàng )</t>
+  </si>
+  <si>
+    <t>TIỀN ĐẶT CỌC</t>
+  </si>
+  <si>
+    <t>% ĐẶT CỌC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,12 +209,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -284,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -330,63 +350,81 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,14 +704,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M23"/>
+  <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -685,127 +723,137 @@
     <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="31" t="s">
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
@@ -825,162 +873,165 @@
         <v>6</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="2:14" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
-      <c r="C16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="C14" s="30"/>
+    </row>
+    <row r="15" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="31"/>
+      <c r="C15" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="32"/>
+      <c r="C16" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="2:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="32"/>
+      <c r="C17" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="41"/>
+    </row>
+    <row r="18" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="2:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -990,67 +1041,71 @@
     <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="11.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="16" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1061,44 +1116,48 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1118,147 +1177,158 @@
         <v>6</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:13" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
-    </row>
-    <row r="15" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="B14" s="30"/>
+    </row>
+    <row r="15" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="23" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="23" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="10"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="10"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="20"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/src/main/webapp/WEB-INF/template/MAU_CAM_KET_DAT_HANG_GACH.xlsx
+++ b/src/main/webapp/WEB-INF/template/MAU_CAM_KET_DAT_HANG_GACH.xlsx
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -361,6 +361,8 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -379,6 +381,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,45 +406,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,8 +731,8 @@
   </sheetPr>
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:J17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -731,30 +752,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -764,50 +785,50 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="19"/>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="27"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
       <c r="H7" s="18"/>
@@ -815,43 +836,43 @@
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="2:14" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" spans="2:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+    </row>
+    <row r="10" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
     </row>
     <row r="11" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -884,10 +905,10 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -898,13 +919,13 @@
     </row>
     <row r="13" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="33"/>
     </row>
     <row r="15" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="40" t="s">
         <v>30</v>
       </c>
@@ -918,7 +939,7 @@
       <c r="K15" s="40"/>
     </row>
     <row r="16" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="40" t="s">
         <v>31</v>
       </c>
@@ -932,59 +953,59 @@
       <c r="K16" s="40"/>
     </row>
     <row r="17" spans="2:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="43" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="38" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
     </row>
     <row r="21" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
@@ -999,13 +1020,8 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="H20:J20"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:J8"/>
@@ -1014,12 +1030,17 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G19:J19"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1048,30 +1069,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="16" t="s">
@@ -1080,30 +1101,30 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -1119,30 +1140,30 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
@@ -1199,10 +1220,10 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1213,101 +1234,101 @@
     </row>
     <row r="13" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="33"/>
     </row>
     <row r="15" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="30" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="10"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="10"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/src/main/webapp/WEB-INF/template/MAU_CAM_KET_DAT_HANG_GACH.xlsx
+++ b/src/main/webapp/WEB-INF/template/MAU_CAM_KET_DAT_HANG_GACH.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>% ĐẶT CỌC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAM KẾT ĐẶT GIỮ HÀNG </t>
+  </si>
+  <si>
+    <t>4/ Về phía bán hàng chúng tôi cam kết bồi thường gấp đôi số tiền đã đặt hàng cho quý khách hàng nếu sau khi đã nhận hàng mà không có hàng như cam kết ( Cam kết này ngoại trừ trường hợp đã quá ngày cam kết đặt giữ hàng mà khách hàng chưa nhận hàng )</t>
   </si>
 </sst>
 </file>
@@ -304,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -364,87 +370,93 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,10 +741,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N21"/>
+  <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -758,11 +770,11 @@
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
@@ -771,11 +783,11 @@
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -785,50 +797,50 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="19"/>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="29"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="B5" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
     </row>
     <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
       <c r="H7" s="18"/>
@@ -836,43 +848,43 @@
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="2:14" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -905,10 +917,10 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -919,109 +931,128 @@
     </row>
     <row r="13" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="40" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="2:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="s">
+      <c r="C18" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="50" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-    </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="52" t="s">
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="52" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-    </row>
-    <row r="21" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:J8"/>
@@ -1033,14 +1064,8 @@
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1051,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1069,30 +1094,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="16" t="s">
@@ -1101,30 +1126,30 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -1140,43 +1165,43 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1220,10 +1245,10 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1234,115 +1259,104 @@
     </row>
     <row r="13" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="36"/>
     </row>
     <row r="15" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="33" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="33" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="10"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="10"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A4:I4"/>
@@ -1350,6 +1364,17 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/src/main/webapp/WEB-INF/template/MAU_CAM_KET_DAT_HANG_GACH.xlsx
+++ b/src/main/webapp/WEB-INF/template/MAU_CAM_KET_DAT_HANG_GACH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -140,13 +140,16 @@
   </si>
   <si>
     <t>4/ Về phía bán hàng chúng tôi cam kết bồi thường gấp đôi số tiền đã đặt hàng cho quý khách hàng nếu sau khi đã nhận hàng mà không có hàng như cam kết ( Cam kết này ngoại trừ trường hợp đã quá ngày cam kết đặt giữ hàng mà khách hàng chưa nhận hàng )</t>
+  </si>
+  <si>
+    <t>Công ty TNHH MTV Thiết Bị Nội Thất C.A.C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,13 +197,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -310,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -348,12 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -372,7 +362,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -382,11 +372,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -421,23 +414,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -452,11 +442,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,8 +742,8 @@
   </sheetPr>
   <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -764,30 +763,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -796,95 +795,95 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="45" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="45"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="42"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="18"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="2:14" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -917,10 +916,10 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -931,106 +930,106 @@
     </row>
     <row r="13" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="35"/>
     </row>
     <row r="15" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="22"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="41" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="29" t="s">
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
@@ -1076,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1094,62 +1093,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -1165,43 +1164,43 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1235,20 +1234,20 @@
     </row>
     <row r="11" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1259,101 +1258,101 @@
     </row>
     <row r="13" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="35"/>
     </row>
     <row r="15" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
     </row>
     <row r="18" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="10"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="10"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="18">
